--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail11 Features.xlsx
@@ -1625,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,29 +1636,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,115 +1677,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1804,72 +1792,66 @@
         <v>4.810856909086303e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0546178593362788</v>
+        <v>2.327342901893047e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4769280944847001</v>
+        <v>1.815424229694586e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.327342901893047e-07</v>
+        <v>0.05240477220492892</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.815424229694586e-06</v>
+        <v>0.2414917667679703</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05240477220492892</v>
+        <v>0.06101122513904615</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2414917667679703</v>
+        <v>1.915460762757285</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06101122513904615</v>
+        <v>2.026877191097721</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.93235844305612</v>
+        <v>5.289610896018644</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.026877191097721</v>
+        <v>1.028427664349721e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.289610896018644</v>
+        <v>1439011220.010846</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.028427664349721e-16</v>
+        <v>8.380001235088554e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1439011220.010846</v>
+        <v>212.9619970833747</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.380001235088554e-08</v>
+        <v>0.0001653198364931243</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>212.9619970833747</v>
+        <v>11.67680195811474</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001653198364931243</v>
+        <v>1.306037824883587</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.67680195811474</v>
+        <v>0.02254098012637333</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.306037824883587</v>
+        <v>4.120118423451933</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02254098012637333</v>
+        <v>0.9611667878998827</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.120118423451933</v>
+        <v>1.184954643366137</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9611667878998827</v>
+        <v>134</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.184954643366137</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.984702331719832</v>
       </c>
     </row>
@@ -1884,72 +1866,66 @@
         <v>4.519361478798816e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1647077627166709</v>
+        <v>1.919885121752753e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8698124204249038</v>
+        <v>1.817550507401322e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.919885121752753e-07</v>
+        <v>0.03872330044966571</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.817550507401322e-06</v>
+        <v>0.2331635252802788</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03872330044966571</v>
+        <v>0.05581689193138742</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2331635252802788</v>
+        <v>1.915649389982433</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05581689193138742</v>
+        <v>2.219590754705232</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.938129687283742</v>
+        <v>5.333786959324421</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.219590754705232</v>
+        <v>4.880398389536202e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.333786959324421</v>
+        <v>3026447719.616689</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.880398389536202e-17</v>
+        <v>3.990338424984397e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3026447719.616689</v>
+        <v>447.0145170537712</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.990338424984397e-08</v>
+        <v>0.0001054314298191552</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>447.0145170537712</v>
+        <v>11.11932878657464</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001054314298191552</v>
+        <v>1.182040421065103</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.11932878657464</v>
+        <v>0.01303548638504633</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.182040421065103</v>
+        <v>4.834551521418883</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01303548638504633</v>
+        <v>0.9612991726128741</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.834551521418883</v>
+        <v>1.129136322770781</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9612991726128741</v>
+        <v>167</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.129136322770781</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.72358483707807</v>
       </c>
     </row>
@@ -1964,72 +1940,66 @@
         <v>4.3640305186942e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2384721919505913</v>
+        <v>1.562144294202793e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9118021259642406</v>
+        <v>1.818947891045188e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.562144294202793e-07</v>
+        <v>0.02438998479262343</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.818947891045188e-06</v>
+        <v>0.2198463970669866</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02438998479262343</v>
+        <v>0.04888908916845432</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2198463970669866</v>
+        <v>1.925480964479739</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04888908916845432</v>
+        <v>2.388151563890969</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946692623701289</v>
+        <v>5.764896637105378</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.388151563890969</v>
+        <v>2.563776934411912e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.764896637105378</v>
+        <v>5661486139.64536</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.563776934411912e-17</v>
+        <v>2.130660325426361e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5661486139.64536</v>
+        <v>821.7526870019137</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.130660325426361e-08</v>
+        <v>8.950309581457876e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>821.7526870019137</v>
+        <v>11.79882757379467</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>8.950309581457876e-05</v>
+        <v>1.050944730459615</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.79882757379467</v>
+        <v>0.0124599346999616</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.050944730459615</v>
+        <v>4.930486250967328</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0124599346999616</v>
+        <v>0.9612658954364526</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.930486250967328</v>
+        <v>1.065117275320355</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9612658954364526</v>
+        <v>171</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.065117275320355</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>3.744035472731112</v>
       </c>
     </row>
@@ -2044,72 +2014,66 @@
         <v>4.299934245373181e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2400469128557904</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8667627743451689</v>
+        <v>1.819704568656173e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>0.0108312673372529</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.819704568656173e-06</v>
+        <v>0.2048124510911478</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0108312673372529</v>
+        <v>0.04203647296241109</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2048124510911478</v>
+        <v>1.926539050478013</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04203647296241109</v>
+        <v>2.797903647329444</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948475183938462</v>
+        <v>5.333234022697512</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.797903647329444</v>
+        <v>1.813960789446245e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.333234022697512</v>
+        <v>7855103830.971535</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.813960789446245e-17</v>
+        <v>1.538240176780791e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7855103830.971535</v>
+        <v>1119.261989430358</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.538240176780791e-08</v>
+        <v>9.424299121897178e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1119.261989430358</v>
+        <v>12.06316432140198</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.424299121897178e-05</v>
+        <v>1.028175273801217</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.06316432140198</v>
+        <v>0.01371423380985623</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.028175273801217</v>
+        <v>4.811165362671948</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01371423380985623</v>
+        <v>0.9606669457370217</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.811165362671948</v>
+        <v>1.019064311513635</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9606669457370217</v>
+        <v>173</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.019064311513635</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.750943327475007</v>
       </c>
     </row>
@@ -2124,72 +2088,66 @@
         <v>4.286886331822989e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2334991297333512</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8508090216794226</v>
+        <v>1.819913178517269e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.0005051786175944382</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.819913178517269e-06</v>
+        <v>0.1925189896742634</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0005051786175944382</v>
+        <v>0.03704880137537202</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1925189896742634</v>
+        <v>1.923474177781651</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03704880137537202</v>
+        <v>2.710581215171109</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.945144591378596</v>
+        <v>5.726101884344663</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.710581215171109</v>
+        <v>1.573587999065788e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.726101884344663</v>
+        <v>8967532774.402214</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.573587999065788e-17</v>
+        <v>1.342833514257033e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8967532774.402214</v>
+        <v>1265.426660179262</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.342833514257033e-08</v>
+        <v>0.0001103350460215879</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1265.426660179262</v>
+        <v>10.73546791124911</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001103350460215879</v>
+        <v>1.172059068481921</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.73546791124911</v>
+        <v>0.01271614398495763</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.172059068481921</v>
+        <v>4.670209870703517</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01271614398495763</v>
+        <v>0.9609034749505769</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.670209870703517</v>
+        <v>0.9907207394602151</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9609034749505769</v>
+        <v>173</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9907207394602151</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.573005493002617</v>
       </c>
     </row>
@@ -2204,72 +2162,66 @@
         <v>4.294538083512625e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2443055534530123</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8603051897215614</v>
+        <v>1.819708320286069e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.008491391892933119</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.819708320286069e-06</v>
+        <v>0.1859690373173654</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.008491391892933119</v>
+        <v>0.03465020499481996</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1859690373173654</v>
+        <v>1.923733627222716</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03465020499481996</v>
+        <v>3.096742471417746</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.943283567591465</v>
+        <v>5.016861007714867</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.096742471417746</v>
+        <v>1.388730632416449e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.016861007714867</v>
+        <v>9873628928.019859</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.388730632416449e-17</v>
+        <v>1.217758319264047e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>9873628928.019859</v>
+        <v>1353.853332065775</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.217758319264047e-08</v>
+        <v>0.000122641432585641</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1353.853332065775</v>
+        <v>9.364005048630627</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000122641432585641</v>
+        <v>1.454719280032558</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.364005048630627</v>
+        <v>0.01075376380083301</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.454719280032558</v>
+        <v>4.62642243978348</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01075376380083301</v>
+        <v>0.960086486578382</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.62642243978348</v>
+        <v>1.009999945142702</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.960086486578382</v>
+        <v>173</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.009999945142702</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.364734831325999</v>
       </c>
     </row>
@@ -2284,72 +2236,66 @@
         <v>4.308034320332428e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2719414992126893</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8728777078838919</v>
+        <v>1.819219390694589e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01385212531366446</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.819219390694589e-06</v>
+        <v>0.1827540872906667</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01385212531366446</v>
+        <v>0.03358835552346058</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1827540872906667</v>
+        <v>1.922158933806543</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03358835552346058</v>
+        <v>2.952694519182611</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.943303734366812</v>
+        <v>4.940527456237908</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.952694519182611</v>
+        <v>1.220174257482905e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.940527456237908</v>
+        <v>11274228880.87796</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.220174257482905e-17</v>
+        <v>1.067116946527562e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>11274228880.87796</v>
+        <v>1550.941985286872</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.067116946527562e-08</v>
+        <v>9.911520589268597e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1550.941985286872</v>
+        <v>9.307932428356759</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.911520589268597e-05</v>
+        <v>1.412617525143078</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.307932428356759</v>
+        <v>0.008587104165744553</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.412617525143078</v>
+        <v>4.975546541735076</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008587104165744553</v>
+        <v>0.9602756804117479</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.975546541735076</v>
+        <v>0.9919579158839215</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9602756804117479</v>
+        <v>173</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9919579158839215</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.585427725751221</v>
       </c>
     </row>
@@ -2364,72 +2310,66 @@
         <v>4.322138961032192e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3106926744462102</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8788229536588323</v>
+        <v>1.818540353416859e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01733900788498548</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.818540353416859e-06</v>
+        <v>0.1810700829410852</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.01733900788498548</v>
+        <v>0.03308605933458033</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1810700829410852</v>
+        <v>1.916263844991104</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03308605933458033</v>
+        <v>3.02628641493248</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.938988787851581</v>
+        <v>5.288532851993889</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.02628641493248</v>
+        <v>1.292955508620702e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.288532851993889</v>
+        <v>10563372671.28144</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.292955508620702e-17</v>
+        <v>1.139047729743311e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>10563372671.28144</v>
+        <v>1442.742363912036</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.139047729743311e-08</v>
+        <v>7.319813438328728e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1442.742363912036</v>
+        <v>10.54853397594281</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>7.319813438328728e-05</v>
+        <v>1.138706466546994</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.54853397594281</v>
+        <v>0.008144871263747713</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.138706466546994</v>
+        <v>5.280979659729446</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008144871263747713</v>
+        <v>0.9613254902877491</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>5.280979659729446</v>
+        <v>1.02204260795448</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9613254902877491</v>
+        <v>165</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.02204260795448</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.988967084862784</v>
       </c>
     </row>
@@ -2444,72 +2384,66 @@
         <v>4.335098180720273e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3559637310400621</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.875623020020766</v>
+        <v>1.817740855600814e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01935810760262473</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.817740855600814e-06</v>
+        <v>0.1800801291884736</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.01935810760262473</v>
+        <v>0.03280338484731814</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1800801291884736</v>
+        <v>1.920810575035367</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03280338484731814</v>
+        <v>2.679182533015854</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.938899262717361</v>
+        <v>6.139197243588898</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.679182533015854</v>
+        <v>1.664242930945847e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.139197243588898</v>
+        <v>8308456776.369104</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.664242930945847e-17</v>
+        <v>1.451603799186925e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>8308456776.369104</v>
+        <v>1148.834450974603</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.451603799186925e-08</v>
+        <v>7.311475548616452e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1148.834450974603</v>
+        <v>11.239769295065</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>7.311475548616452e-05</v>
+        <v>1.06159069383831</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.239769295065</v>
+        <v>0.009236763545423559</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.06159069383831</v>
+        <v>5.253262423348538</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009236763545423559</v>
+        <v>0.9619167088441107</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.253262423348538</v>
+        <v>0.9993498629910819</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9619167088441107</v>
+        <v>141</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9993498629910819</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>4.156861047209627</v>
       </c>
     </row>
@@ -2524,72 +2458,66 @@
         <v>4.346072690884171e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4045816523774142</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8632627672669244</v>
+        <v>1.816880196400023e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.02008827773169854</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.816880196400023e-06</v>
+        <v>0.1794866405859618</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02008827773169854</v>
+        <v>0.03261902886587365</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1794866405859618</v>
+        <v>1.920442807418736</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03261902886587365</v>
+        <v>3.022122106404435</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.938561594156577</v>
+        <v>5.352087790411954</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.022122106404435</v>
+        <v>2.189744466340084e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.352087790411954</v>
+        <v>6163525865.135146</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.189744466340084e-17</v>
+        <v>1.953629523102206e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>6163525865.135146</v>
+        <v>831.8631440625417</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.953629523102206e-08</v>
+        <v>9.16837461606004e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>831.8631440625417</v>
+        <v>11.21327812816122</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9.16837461606004e-05</v>
+        <v>1.107156740269064</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.21327812816122</v>
+        <v>0.01152809478613945</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.107156740269064</v>
+        <v>5.051803530235943</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01152809478613945</v>
+        <v>0.9612760730289767</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>5.051803530235943</v>
+        <v>1.021427014332152</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9612760730289767</v>
+        <v>102</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.021427014332152</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>4.081620007340987</v>
       </c>
     </row>
@@ -2604,72 +2532,66 @@
         <v>4.354445521313574e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4542509714962743</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.8426874496800192</v>
+        <v>1.816012343970275e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01958483744813656</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.816012343970275e-06</v>
+        <v>0.1792251910083346</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01958483744813656</v>
+        <v>0.0325051109139785</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1792251910083346</v>
+        <v>1.926800988390143</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0325051109139785</v>
+        <v>2.761516783968751</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.939725031454274</v>
+        <v>5.087698793616882</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.761516783968751</v>
+        <v>3.432524306982064e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.087698793616882</v>
+        <v>3956593287.666238</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.432524306982064e-17</v>
+        <v>3.050427510428615e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3956593287.666238</v>
+        <v>537.348995158704</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.050427510428615e-08</v>
+        <v>0.0001324207326720651</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>537.348995158704</v>
+        <v>11.79688767597641</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001324207326720651</v>
+        <v>1.19516556228892</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.79688767597641</v>
+        <v>0.01842853768499042</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.19516556228892</v>
+        <v>4.544340338536557</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01842853768499042</v>
+        <v>0.9612696858164066</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.544340338536557</v>
+        <v>1.059750808292918</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9612696858164066</v>
+        <v>102</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.059750808292918</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.787282425744102</v>
       </c>
     </row>
@@ -2684,72 +2606,66 @@
         <v>4.359495879776616e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5027308029937507</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.8153070596511589</v>
+        <v>1.815194221377372e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01771618496593688</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.815194221377372e-06</v>
+        <v>0.1794416410392101</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.01771618496593688</v>
+        <v>0.03251230085885227</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1794416410392101</v>
+        <v>1.928810767410643</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03251230085885227</v>
+        <v>2.539208961100605</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.941263857606474</v>
+        <v>4.850361436845927</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.539208961100605</v>
+        <v>6.149106887742207e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.850361436845927</v>
+        <v>2200514969.464352</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.149106887742207e-17</v>
+        <v>5.474816264831401e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2200514969.464352</v>
+        <v>297.7561201740875</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.474816264831401e-08</v>
+        <v>0.0001757895030794924</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>297.7561201740875</v>
+        <v>12.94940029360937</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001757895030794924</v>
+        <v>1.126383388905001</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.94940029360937</v>
+        <v>0.02947760877132124</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.126383388905001</v>
+        <v>3.898699183321027</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02947760877132124</v>
+        <v>0.9607198679226319</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.898699183321027</v>
+        <v>1.062133677619744</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9607198679226319</v>
+        <v>102</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.062133677619744</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.265065718524974</v>
       </c>
     </row>
@@ -2764,72 +2680,66 @@
         <v>4.360408738563096e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5469995511674113</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7830162560314773</v>
+        <v>1.814489994841473e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.01428669378130946</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.814489994841473e-06</v>
+        <v>0.1805809336756062</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01428669378130946</v>
+        <v>0.03281096537538175</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1805809336756062</v>
+        <v>1.931682488289215</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03281096537538175</v>
+        <v>2.208583769769405</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.940386652136312</v>
+        <v>4.580135704867023</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.208583769769405</v>
+        <v>1.132026888697305e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.580135704867023</v>
+        <v>1132362992.300457</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.132026888697305e-16</v>
+        <v>1.062763611456889e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1132362992.300457</v>
+        <v>145.1536889170544</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.062763611456889e-07</v>
+        <v>0.0002129514195835651</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>145.1536889170544</v>
+        <v>13.72796218872596</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002129514195835651</v>
+        <v>1.071435282207886</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.72796218872596</v>
+        <v>0.0401321741502244</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.071435282207886</v>
+        <v>3.293012171040721</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0401321741502244</v>
+        <v>0.9620048489262533</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.293012171040721</v>
+        <v>1.140626065748214</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9620048489262533</v>
+        <v>100</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.140626065748214</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.385640273470673</v>
       </c>
     </row>
@@ -2844,72 +2754,66 @@
         <v>4.35726479928716e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.581935470687026</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7502643021945135</v>
+        <v>1.813974926995125e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.008969055975453848</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.813974926995125e-06</v>
+        <v>0.1835313065456788</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.008969055975453848</v>
+        <v>0.03375786591077293</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1835313065456788</v>
+        <v>1.936045283510169</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03375786591077293</v>
+        <v>1.935500930772373</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.950478773271113</v>
+        <v>4.406133007740212</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.935500930772373</v>
+        <v>2.038006584549488e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.406133007740212</v>
+        <v>624183950.9212934</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.038006584549488e-16</v>
+        <v>1.931349545734398e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>624183950.9212934</v>
+        <v>79.40187875271489</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.931349545734398e-07</v>
+        <v>0.0002402775281363416</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>79.40187875271489</v>
+        <v>13.56381364867842</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002402775281363416</v>
+        <v>1.095989278165931</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.56381364867842</v>
+        <v>0.04420554857229199</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.095989278165931</v>
+        <v>2.811741178247219</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.04420554857229199</v>
+        <v>0.9631441181140832</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.811741178247219</v>
+        <v>1.153798070209935</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9631441181140832</v>
+        <v>86</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.153798070209935</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>1.415491520753037</v>
       </c>
     </row>
@@ -2924,72 +2828,66 @@
         <v>4.353394989655917e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5988783895598875</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7298332982671116</v>
+        <v>1.813741294532473e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>-0.001275566688596605</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.813741294532473e-06</v>
+        <v>0.1897955471715861</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.001275566688596605</v>
+        <v>0.03601026631792136</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1897955471715861</v>
+        <v>1.927017576800781</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03601026631792136</v>
+        <v>1.761012276406932</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.938219376629289</v>
+        <v>4.343911565011968</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.761012276406932</v>
+        <v>3.648803592451096e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.343911565011968</v>
+        <v>337778386.1203787</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.648803592451096e-16</v>
+        <v>3.560047862813118e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>337778386.1203787</v>
+        <v>41.63074659670347</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.560047862813118e-07</v>
+        <v>0.0002524123798108848</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>41.63074659670347</v>
+        <v>13.36400962011528</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0002524123798108848</v>
+        <v>1.092683881845853</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.36400962011528</v>
+        <v>0.04508003148316542</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.092683881845853</v>
+        <v>2.453817360152869</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.04508003148316542</v>
+        <v>0.9620782838523785</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.453817360152869</v>
+        <v>1.248880816997501</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9620782838523785</v>
+        <v>55</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.248880816997501</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.7882564586075218</v>
       </c>
     </row>
@@ -3004,72 +2902,66 @@
         <v>4.360307653656493e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5867547523247473</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7518328659838152</v>
+        <v>1.813906363656437e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>0.009489480976620666</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.813906363656437e-06</v>
+        <v>0.2016714175910309</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.009489480976620666</v>
+        <v>0.04073319006989031</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2016714175910309</v>
+        <v>1.918059980188863</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04073319006989031</v>
+        <v>1.647844994103203</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.918395255173267</v>
+        <v>4.147204829945555</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.647844994103203</v>
+        <v>6.596809690475238e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.147204829945555</v>
+        <v>185061402.0025802</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.596809690475238e-16</v>
+        <v>6.495822559928227e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>185061402.0025802</v>
+        <v>22.59257077383311</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>6.495822559928227e-07</v>
+        <v>0.0002614838208628508</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.59257077383311</v>
+        <v>13.35382646178437</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0002614838208628508</v>
+        <v>1.084597049600337</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.35382646178437</v>
+        <v>0.04662901898686107</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.084597049600337</v>
+        <v>2.216156226433958</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04662901898686107</v>
+        <v>0.9627378424207402</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.216156226433958</v>
+        <v>1.356091009486624</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9627378424207402</v>
+        <v>39</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.356091009486624</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.4544205004005878</v>
       </c>
     </row>
@@ -3084,72 +2976,66 @@
         <v>4.407204806437008e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5454361867737261</v>
+        <v>1.462483338574174e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.8505469613109566</v>
+        <v>1.814624774955189e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.462483338574174e-07</v>
+        <v>0.02406219428508617</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.814624774955189e-06</v>
+        <v>0.2217940078391526</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02406219428508617</v>
+        <v>0.04971670614511624</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2217940078391526</v>
+        <v>1.903426804246766</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04971670614511624</v>
+        <v>1.560944056889293</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.88941418894368</v>
+        <v>4.017824273703555</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.560944056889293</v>
+        <v>1.201629798734249e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.017824273703555</v>
+        <v>101430524.0121129</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.201629798734249e-15</v>
+        <v>1.183448377121443e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>101430524.0121129</v>
+        <v>12.36254905745194</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.183448377121443e-06</v>
+        <v>0.0002690430974605278</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>12.36254905745194</v>
+        <v>13.48019749261415</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002690430974605278</v>
+        <v>1.078993087060911</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.48019749261415</v>
+        <v>0.04888936136058926</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.078993087060911</v>
+        <v>2.092180147344905</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.04888936136058926</v>
+        <v>0.9616360707967933</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.092180147344905</v>
+        <v>1.450923115413695</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9616360707967933</v>
+        <v>6</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.450923115413695</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2911059505375783</v>
       </c>
     </row>
@@ -3164,72 +3050,66 @@
         <v>4.556611920514912e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5307763489621484</v>
+        <v>1.738771932589175e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9120062123490698</v>
+        <v>1.816100283449022e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.738771932589175e-07</v>
+        <v>0.04257305712607297</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.816100283449022e-06</v>
+        <v>0.2512095932217266</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04257305712607297</v>
+        <v>0.06481954820367847</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2512095932217266</v>
+        <v>1.861112438920388</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.06481954820367847</v>
+        <v>1.463778108444791</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.835522827302915</v>
+        <v>4.02430657112147</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.463778108444791</v>
+        <v>2.185024941748069e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.02430657112147</v>
+        <v>55975374.33955759</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.185024941748069e-15</v>
+        <v>2.129859293575369e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>55975374.33955759</v>
+        <v>6.846213081957006</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.129859293575369e-06</v>
+        <v>0.0002719861186490225</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>6.846213081957006</v>
+        <v>13.56935658202287</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002719861186490225</v>
+        <v>1.07355440288324</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>13.56935658202287</v>
+        <v>0.0500801072120316</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.07355440288324</v>
+        <v>2.034537501588226</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0500801072120316</v>
+        <v>0.9577801397527931</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.034537501588226</v>
+        <v>1.535948002341682</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9577801397527931</v>
+        <v>2</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.535948002341682</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2069967373408451</v>
       </c>
     </row>
@@ -3244,72 +3124,66 @@
         <v>4.923570697216774e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.712948207154669</v>
+        <v>2.405141211697276e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.253871241592968</v>
+        <v>1.818601740597364e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.405141211697276e-07</v>
+        <v>0.06359746257359647</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.818601740597364e-06</v>
+        <v>0.2868609700285391</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.06359746257359647</v>
+        <v>0.08617048938208355</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2868609700285391</v>
+        <v>1.831591418329767</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.08617048938208355</v>
+        <v>1.403421598340158</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.790255934838983</v>
+        <v>3.805210909973408</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.403421598340158</v>
+        <v>4.062388777153434e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.805210909973408</v>
+        <v>31146307.67288211</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.062388777153434e-15</v>
+        <v>3.812848513883144e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>31146307.67288211</v>
+        <v>3.940892810271463</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.812848513883144e-06</v>
+        <v>0.0002732652902624975</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>3.940892810271463</v>
+        <v>13.53955874080216</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002732652902624975</v>
+        <v>1.076513694644083</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>13.53955874080216</v>
+        <v>0.05009489761281465</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.076513694644083</v>
+        <v>2.0007882167667</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.05009489761281465</v>
+        <v>0.9541923809593468</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.0007882167667</v>
+        <v>1.641479313520224</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9541923809593468</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.641479313520224</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1574609779106625</v>
       </c>
     </row>
@@ -3324,72 +3198,66 @@
         <v>5.677486917767121e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.268276630563057</v>
+        <v>3.287183429787717e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.240991927211712</v>
+        <v>1.822476675428195e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.287183429787717e-07</v>
+        <v>0.08240370276295793</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.822476675428195e-06</v>
+        <v>0.3137908192148886</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.08240370276295793</v>
+        <v>0.1050680248129665</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.3137908192148886</v>
+        <v>1.769825389040635</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.1050680248129665</v>
+        <v>1.408577588420147</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.709335532389306</v>
+        <v>3.41684064836218</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.408577588420147</v>
+        <v>4.928252979309074e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.41684064836218</v>
+        <v>26674723.08904219</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.928252979309074e-15</v>
+        <v>4.294043243428359e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>26674723.08904219</v>
+        <v>3.506653323163338</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.294043243428359e-06</v>
+        <v>0.0002646138907589454</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>3.506653323163338</v>
+        <v>14.32586983498883</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0002646138907589454</v>
+        <v>0.9724787547114193</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>14.32586983498883</v>
+        <v>0.05430685341963479</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.9724787547114193</v>
+        <v>1.894757087719513</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.05430685341963479</v>
+        <v>0.9538455020594937</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>1.894757087719513</v>
+        <v>1.681931725643355</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9538455020594937</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.681931725643355</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1412088949606169</v>
       </c>
     </row>
@@ -3404,72 +3272,66 @@
         <v>6.937005372321789e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.998138255807972</v>
+        <v>4.279107887721374e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>5.769086530601133</v>
+        <v>1.828010228443765e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.279107887721374e-07</v>
+        <v>0.09233986290318086</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.828010228443765e-06</v>
+        <v>0.3098305467506767</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.09233986290318086</v>
+        <v>0.1043902315585826</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.3098305467506767</v>
+        <v>1.647734876545454</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.1043902315585826</v>
+        <v>1.425040025087996</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.585400695637197</v>
+        <v>4.631679067992843</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.425040025087996</v>
+        <v>5.009718587327913e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.631679067992843</v>
+        <v>29712943.69614698</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.009718587327913e-15</v>
+        <v>3.461511203757669e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>29712943.69614698</v>
+        <v>4.422875257966143</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.461511203757669e-06</v>
+        <v>0.0002302036662519291</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4.422875257966143</v>
+        <v>13.01101283538446</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0002302036662519291</v>
+        <v>1.041817903480766</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>13.01101283538446</v>
+        <v>0.03897036258837677</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.041817903480766</v>
+        <v>2.221715133115894</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.03897036258837677</v>
+        <v>0.9471010281098887</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.221715133115894</v>
+        <v>1.794195784768064</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9471010281098887</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.794195784768064</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1385477232273572</v>
       </c>
     </row>
@@ -3484,72 +3346,66 @@
         <v>8.632678278074924e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.494349165129285</v>
+        <v>5.186611432654948e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>7.843491211033022</v>
+        <v>1.835229607649683e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.186611432654948e-07</v>
+        <v>0.09256074907881974</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.835229607649683e-06</v>
+        <v>0.2780957653645071</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.09256074907881974</v>
+        <v>0.08584860923965136</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2780957653645071</v>
+        <v>1.561852852551515</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.08584860923965136</v>
+        <v>1.43829752569089</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.488276405814011</v>
+        <v>4.936365507092646</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.43829752569089</v>
+        <v>8.94357083303122e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.936365507092646</v>
+        <v>17780399.85718285</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>8.94357083303122e-15</v>
+        <v>5.459869147292486e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>17780399.85718285</v>
+        <v>2.827443907093683</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.459869147292486e-06</v>
+        <v>0.0002296929170473674</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2.827443907093683</v>
+        <v>9.400039457752415</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0002296929170473674</v>
+        <v>1.663031293007885</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.400039457752415</v>
+        <v>0.02029583653818853</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.663031293007885</v>
+        <v>2.616730905290176</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02029583653818853</v>
+        <v>0.9398350833605446</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.616730905290176</v>
+        <v>1.877389983181412</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9398350833605446</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.877389983181412</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1231265934587496</v>
       </c>
     </row>
@@ -3564,72 +3420,66 @@
         <v>1.05481378989602e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.660079471815392</v>
+        <v>5.891980009497583e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>7.929559367072869</v>
+        <v>1.843869383129434e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.891980009497583e-07</v>
+        <v>0.08758606763994825</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.843869383129434e-06</v>
+        <v>0.2394271031900833</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.08758606763994825</v>
+        <v>0.06497621536006132</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2394271031900833</v>
+        <v>1.547278521502821</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.06497621536006132</v>
+        <v>1.441107350719779</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.474568319423387</v>
+        <v>4.058656878841894</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.441107350719779</v>
+        <v>1.323003198815419e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.058656878841894</v>
+        <v>12234987.71003222</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.323003198815419e-14</v>
+        <v>7.916373005875224e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>12234987.71003222</v>
+        <v>1.980468636485498</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.916373005875224e-06</v>
+        <v>0.0002111743245688489</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>1.980468636485498</v>
+        <v>9.261888049817115</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002111743245688489</v>
+        <v>1.586278932528856</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.261888049817115</v>
+        <v>0.01811507633176293</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.586278932528856</v>
+        <v>2.634843526179105</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01811507633176293</v>
+        <v>0.9376022714907338</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.634843526179105</v>
+        <v>1.842554201123991</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9376022714907338</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.842554201123991</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1229754876851261</v>
       </c>
     </row>
@@ -3644,72 +3494,66 @@
         <v>1.249738333270918e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2.62262519141744</v>
+        <v>6.395801269069973e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>7.005740245178005</v>
+        <v>1.85358903133181e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.395801269069973e-07</v>
+        <v>0.08122913359254175</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.85358903133181e-06</v>
+        <v>0.2059504121331758</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.08122913359254175</v>
+        <v>0.04900734909765827</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2059504121331758</v>
+        <v>1.535725358419927</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.04900734909765827</v>
+        <v>1.444639927450251</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.462092715634557</v>
+        <v>3.619909850169164</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.444639927450251</v>
+        <v>1.663144787039757e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.619909850169164</v>
+        <v>9874769.386830729</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.663144787039757e-14</v>
+        <v>9.761911838545898e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9874769.386830729</v>
+        <v>1.621750284860905</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>9.761911838545898e-06</v>
+        <v>0.0001915154261515496</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>1.621750284860905</v>
+        <v>10.36654769795484</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001915154261515496</v>
+        <v>1.201920225060612</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.36654769795484</v>
+        <v>0.02058126486599227</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.201920225060612</v>
+        <v>2.525342261447702</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02058126486599227</v>
+        <v>0.9369356930514162</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.525342261447702</v>
+        <v>1.879110636025375</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9369356930514162</v>
+        <v>1</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.879110636025375</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1301004489299058</v>
       </c>
     </row>
@@ -3724,72 +3568,66 @@
         <v>1.436976115324089e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.493660969567564</v>
+        <v>6.748010371597692e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>5.808411207943262</v>
+        <v>1.864085077660956e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.748010371597692e-07</v>
+        <v>0.07524469692654824</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.864085077660956e-06</v>
+        <v>0.1800039787411477</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.07524469692654824</v>
+        <v>0.03806089111155116</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1800039787411477</v>
+        <v>1.509285120568633</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03806089111155116</v>
+        <v>1.447002170068374</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.432207327465369</v>
+        <v>3.493541382376632</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.447002170068374</v>
+        <v>1.785639502459655e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.493541382376632</v>
+        <v>9451695.645899765</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.785639502459655e-14</v>
+        <v>1.011105013838922e-05</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9451695.645899765</v>
+        <v>1.595193024549861</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.011105013838922e-05</v>
+        <v>0.0001944616347864843</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>1.595193024549861</v>
+        <v>11.63302751160412</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001944616347864843</v>
+        <v>1.065643632507921</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.63302751160412</v>
+        <v>0.02631597364530121</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.065643632507921</v>
+        <v>2.301745653238453</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02631597364530121</v>
+        <v>0.9331143408284178</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.301745653238453</v>
+        <v>1.879767155135967</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9331143408284178</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.879767155135967</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1372394211980462</v>
       </c>
     </row>
@@ -3804,72 +3642,66 @@
         <v>1.613218070542373e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.335882693951318</v>
+        <v>7.039280723122396e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>4.674515582361969</v>
+        <v>1.875180246049035e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.039280723122396e-07</v>
+        <v>0.0705015598559476</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.875180246049035e-06</v>
+        <v>0.1605001705541021</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0705015598559476</v>
+        <v>0.03072928777106131</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1605001705541021</v>
+        <v>1.474983184770249</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03072928777106131</v>
+        <v>1.435811156297703</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.397433385113851</v>
+        <v>3.480832056089404</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.435811156297703</v>
+        <v>1.798702876811743e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.480832056089404</v>
+        <v>9410253.723931005</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.798702876811743e-14</v>
+        <v>1.004298884606301e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>9410253.723931005</v>
+        <v>1.59280311280021</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.004298884606301e-05</v>
+        <v>0.0001962287615792021</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1.59280311280021</v>
+        <v>11.66482833124453</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001962287615792021</v>
+        <v>1.074720712637326</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.66482833124453</v>
+        <v>0.02670049830037721</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.074720712637326</v>
+        <v>2.313574379758643</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02670049830037721</v>
+        <v>0.9309862838340039</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.313574379758643</v>
+        <v>1.875729131912653</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9309862838340039</v>
+        <v>2</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.875729131912653</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1372265470893781</v>
       </c>
     </row>
@@ -3884,72 +3716,66 @@
         <v>1.780424701321535e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2.178894889933278</v>
+        <v>7.34776190093617e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3.712631276311773</v>
+        <v>1.886841767077402e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.34776190093617e-07</v>
+        <v>0.06720230468294541</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.886841767077402e-06</v>
+        <v>0.1456177490282224</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.06720230468294541</v>
+        <v>0.02571884108948352</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1456177490282224</v>
+        <v>1.460341048508527</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02571884108948352</v>
+        <v>1.433539995051377</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.380134047902766</v>
+        <v>3.470715050481582</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.433539995051377</v>
+        <v>1.809204464712974e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.470715050481582</v>
+        <v>9580586.864886317</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.809204464712974e-14</v>
+        <v>9.870248854089523e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>9580586.864886317</v>
+        <v>1.660626165526419</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.870248854089523e-06</v>
+        <v>0.0002011698357333205</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1.660626165526419</v>
+        <v>10.03637661049009</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002011698357333205</v>
+        <v>1.295337029553974</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.03637661049009</v>
+        <v>0.02026360730802097</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.295337029553974</v>
+        <v>2.556671386383225</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02026360730802097</v>
+        <v>0.9286903583824714</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.556671386383225</v>
+        <v>1.880629315400209</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9286903583824714</v>
+        <v>2</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.880629315400209</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1261876055555792</v>
       </c>
     </row>
@@ -3964,72 +3790,66 @@
         <v>1.94312564868138e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.035271300303156</v>
+        <v>7.72268372390241e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.936897483531419</v>
+        <v>1.899148970570126e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.72268372390241e-07</v>
+        <v>0.06517112310187018</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.899148970570126e-06</v>
+        <v>0.134015329379</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.06517112310187018</v>
+        <v>0.0222052810379168</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.134015329379</v>
+        <v>1.427804106587778</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.0222052810379168</v>
+        <v>1.428024027882222</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.354158416739287</v>
+        <v>3.458423063397925</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.428024027882222</v>
+        <v>1.822087931033621e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.458423063397925</v>
+        <v>9842547.228021905</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.822087931033621e-14</v>
+        <v>9.338947922638242e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>9842547.228021905</v>
+        <v>1.765161092586972</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.338947922638242e-06</v>
+        <v>0.0002182083009770825</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1.765161092586972</v>
+        <v>9.297393131459382</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002182083009770825</v>
+        <v>1.546163782629593</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.297393131459382</v>
+        <v>0.01886225700379468</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.546163782629593</v>
+        <v>2.581039256061543</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01886225700379468</v>
+        <v>0.9250206517070462</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.581039256061543</v>
+        <v>1.875280239215655</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9250206517070462</v>
+        <v>3</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.875280239215655</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1189809250318793</v>
       </c>
     </row>
@@ -4044,72 +3864,66 @@
         <v>2.103718832612557e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.906375454689856</v>
+        <v>8.062266367993756e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.312556469210223</v>
+        <v>1.912144267841181e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>8.062266367993756e-07</v>
+        <v>0.06317599869418575</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.912144267841181e-06</v>
+        <v>0.1240487026290855</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.06317599869418575</v>
+        <v>0.01937874855989504</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1240487026290855</v>
+        <v>1.391787714212377</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01937874855989504</v>
+        <v>1.424290546198354</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.315715498047373</v>
+        <v>3.334346624653307</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.424290546198354</v>
+        <v>1.960216671173411e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.334346624653307</v>
+        <v>9601708.2865502</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.960216671173411e-14</v>
+        <v>9.520792910616814e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>9601708.2865502</v>
+        <v>1.80717867481807</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.520792910616814e-06</v>
+        <v>0.0001961928773324548</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1.80717867481807</v>
+        <v>10.31707965582447</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001961928773324548</v>
+        <v>1.214597961922315</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.31707965582447</v>
+        <v>0.02088318826902838</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.214597961922315</v>
+        <v>2.500448727743394</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02088318826902838</v>
+        <v>0.9216514289741952</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.500448727743394</v>
+        <v>1.90373951605664</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9216514289741952</v>
+        <v>3</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.90373951605664</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1289491316809563</v>
       </c>
     </row>
@@ -4124,72 +3938,66 @@
         <v>2.257161726537308e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.784551190463877</v>
+        <v>8.236612126712581e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.772475714186594</v>
+        <v>1.925631742148603e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>8.236612126712581e-07</v>
+        <v>0.06039323450629575</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.925631742148603e-06</v>
+        <v>0.1152854865668536</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.06039323450629575</v>
+        <v>0.01693844482068801</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1152854865668536</v>
+        <v>1.401658396269276</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01693844482068801</v>
+        <v>1.419384899300629</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.32682472715914</v>
+        <v>3.187894921831499</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.419384899300629</v>
+        <v>2.144458139809022e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.187894921831499</v>
+        <v>9255870.08197717</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.144458139809022e-14</v>
+        <v>1.017808359690896e-05</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>9255870.08197717</v>
+        <v>1.837181541647829</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.017808359690896e-05</v>
+        <v>0.0001957601300938063</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1.837181541647829</v>
+        <v>11.53832888276168</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001957601300938063</v>
+        <v>1.090578035824626</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.53832888276168</v>
+        <v>0.02606213993949281</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.090578035824626</v>
+        <v>2.289313067827995</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02606213993949281</v>
+        <v>0.920971572876358</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.289313067827995</v>
+        <v>1.88362451848632</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.920971572876358</v>
+        <v>3</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.88362451848632</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.138861516712831</v>
       </c>
     </row>
@@ -4204,72 +4012,66 @@
         <v>2.397263869684876e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.664857374877738</v>
+        <v>8.277373107375749e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.280803974674734</v>
+        <v>1.939331787303289e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>8.277373107375749e-07</v>
+        <v>0.05731834874114385</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.939331787303289e-06</v>
+        <v>0.1083295975593376</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05731834874114385</v>
+        <v>0.01502111638417927</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1083295975593376</v>
+        <v>1.385154723428044</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01502111638417927</v>
+        <v>1.402064896506199</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.30895966427995</v>
+        <v>3.211005306010375</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.402064896506199</v>
+        <v>2.113700852428573e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.211005306010375</v>
+        <v>9561185.828680266</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.113700852428573e-14</v>
+        <v>9.798193973389141e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>9561185.828680266</v>
+        <v>1.932266572319854</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.798193973389141e-06</v>
+        <v>0.0001879841313759979</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1.932266572319854</v>
+        <v>10.98572356041863</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001879841313759979</v>
+        <v>1.125254243829306</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>10.98572356041863</v>
+        <v>0.02268707584074155</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.125254243829306</v>
+        <v>2.435009328647876</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02268707584074155</v>
+        <v>0.9184924470313215</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.435009328647876</v>
+        <v>1.893336217912952</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9184924470313215</v>
+        <v>3</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.893336217912952</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1399775830251856</v>
       </c>
     </row>
@@ -4646,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540849832314809</v>
+        <v>1.477832630254985</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.12920097751805</v>
@@ -4735,7 +4537,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.495520597932606</v>
+        <v>1.443776819314717</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.130721681860057</v>
@@ -4824,7 +4626,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483531286351258</v>
+        <v>1.432097079911161</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.064669752877314</v>
@@ -4913,7 +4715,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.491224971897254</v>
+        <v>1.43849145258184</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.05645191711105</v>
@@ -5002,7 +4804,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.486539990708686</v>
+        <v>1.434375415279345</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.983451771002635</v>
@@ -5091,7 +4893,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.495685950283159</v>
+        <v>1.437892791033642</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.033760321067873</v>
@@ -5180,7 +4982,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.504256759993447</v>
+        <v>1.437863920623755</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.106670950247922</v>
@@ -5269,7 +5071,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.501852001831233</v>
+        <v>1.435933946957192</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.017298011376736</v>
@@ -5358,7 +5160,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506173947745997</v>
+        <v>1.439307393626399</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.013084534378255</v>
@@ -5447,7 +5249,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.511903975691865</v>
+        <v>1.447029819715248</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.00564555730668</v>
@@ -5536,7 +5338,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5082145819517</v>
+        <v>1.444184571600091</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.015102691875744</v>
@@ -5625,7 +5427,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.493593675507378</v>
+        <v>1.437555880318526</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.00125979582859</v>
@@ -5714,7 +5516,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.498819419468634</v>
+        <v>1.443330306014911</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.086992918716118</v>
@@ -5803,7 +5605,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.489254807505303</v>
+        <v>1.438497292090303</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.20065140650648</v>
@@ -5892,7 +5694,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.496518849807847</v>
+        <v>1.443718611610678</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.106040152774595</v>
@@ -5981,7 +5783,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.509604538667404</v>
+        <v>1.45383117432282</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.063269424524406</v>
@@ -6070,7 +5872,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.558184753077302</v>
+        <v>1.486237438122071</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.358793663256785</v>
@@ -6159,7 +5961,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.563872029311428</v>
+        <v>1.49554226674318</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.54672068682222</v>
@@ -6248,7 +6050,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.564999102124111</v>
+        <v>1.496090957350982</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.402710350608429</v>
@@ -6337,7 +6139,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573180276305163</v>
+        <v>1.504602001877445</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.543298776090328</v>
@@ -6426,7 +6228,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.572063445462937</v>
+        <v>1.501724219795492</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.503670171501136</v>
@@ -6515,7 +6317,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585321704978815</v>
+        <v>1.517262756716256</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.526371944542025</v>
@@ -6604,7 +6406,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.572623245947208</v>
+        <v>1.504824654044793</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.62396000959325</v>
@@ -6693,7 +6495,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580054588659757</v>
+        <v>1.507882334459287</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.490394970095966</v>
@@ -6782,7 +6584,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568718517002292</v>
+        <v>1.505010750825853</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.704565083313889</v>
@@ -6871,7 +6673,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.569979488767232</v>
+        <v>1.507703201299551</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.646663370279075</v>
@@ -6960,7 +6762,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598184954898106</v>
+        <v>1.526983194890752</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.676609538300876</v>
@@ -7049,7 +6851,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59143895439725</v>
+        <v>1.522507702800195</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.580656725180787</v>
@@ -7138,7 +6940,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584890607753422</v>
+        <v>1.515888036604309</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.559985385845224</v>
@@ -7227,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.586702752174423</v>
+        <v>1.521422151786217</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.546453148523879</v>
@@ -7316,7 +7118,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584888149813397</v>
+        <v>1.518967582649433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.677665425728607</v>
@@ -7405,7 +7207,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.588463492000558</v>
+        <v>1.52414330625931</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.577287887285513</v>
@@ -7494,7 +7296,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595722863609211</v>
+        <v>1.529140213209512</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.553138834848059</v>
@@ -7583,7 +7385,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590410378488949</v>
+        <v>1.522578008554601</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.501257171961131</v>
@@ -7672,7 +7474,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584925511527887</v>
+        <v>1.517126271739248</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.643434984054081</v>
@@ -7761,7 +7563,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.576699737776863</v>
+        <v>1.510684791094094</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.447249296570284</v>
@@ -7850,7 +7652,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573219848699966</v>
+        <v>1.506859108181711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.368528486599264</v>
@@ -7939,7 +7741,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589681253344892</v>
+        <v>1.520157474605538</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.489700544101927</v>
@@ -8028,7 +7830,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595564888675683</v>
+        <v>1.523735797795523</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.218646279043562</v>
@@ -8117,7 +7919,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.60788552538754</v>
+        <v>1.532875537048463</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.349889106412908</v>
@@ -8206,7 +8008,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597259544741094</v>
+        <v>1.526192107816997</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.232942033390543</v>
@@ -8295,7 +8097,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594338946070143</v>
+        <v>1.525437573621467</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.271517884107968</v>
@@ -8384,7 +8186,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.599491774223431</v>
+        <v>1.535479821309212</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.343233188562049</v>
@@ -8473,7 +8275,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601704002151859</v>
+        <v>1.538406107126546</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.825047314646641</v>
@@ -8562,7 +8364,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598145572803185</v>
+        <v>1.534849848495227</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.806996018153905</v>
@@ -8651,7 +8453,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595199119208038</v>
+        <v>1.534026159615126</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.139191416493466</v>
@@ -8740,7 +8542,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.600207638570317</v>
+        <v>1.542002598765134</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.94290400419806</v>
@@ -8829,7 +8631,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.598371500424924</v>
+        <v>1.544557579660545</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.247988225057281</v>
@@ -8918,7 +8720,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612160939175207</v>
+        <v>1.557863449344222</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.072556199428008</v>
@@ -9007,7 +8809,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.610392797498218</v>
+        <v>1.5584982451698</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.139585098822758</v>
@@ -9096,7 +8898,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619403252958391</v>
+        <v>1.564377898713348</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.530718482939417</v>
@@ -9185,7 +8987,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618999243461941</v>
+        <v>1.564720483902914</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.745962278962074</v>
@@ -9274,7 +9076,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603382508774808</v>
+        <v>1.550607621755926</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.886004476077487</v>
@@ -9363,7 +9165,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61387949379531</v>
+        <v>1.561832147870121</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.64318789183246</v>
@@ -9452,7 +9254,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.596949682813047</v>
+        <v>1.53996536614672</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.566236326266344</v>
@@ -9541,7 +9343,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589185174975997</v>
+        <v>1.526755225337706</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.768151234952255</v>
@@ -9630,7 +9432,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.599610615146744</v>
+        <v>1.532641961495114</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.778550093147306</v>
@@ -9719,7 +9521,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.603337886873938</v>
+        <v>1.536258641919775</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.817721457582978</v>
@@ -9808,7 +9610,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.603148178953791</v>
+        <v>1.538797692547468</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.774403125939241</v>
@@ -9897,7 +9699,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.613377665905174</v>
+        <v>1.549431828917448</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.837567764331656</v>
@@ -9986,7 +9788,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.59930549497655</v>
+        <v>1.533492954780603</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.766811136122828</v>
@@ -10075,7 +9877,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.602034110237417</v>
+        <v>1.532719442812345</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.923075487161416</v>
@@ -10164,7 +9966,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.590362419792458</v>
+        <v>1.523041671546593</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.89920894420265</v>
@@ -10253,7 +10055,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.595397607483735</v>
+        <v>1.519465653152811</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.628842689916004</v>
@@ -10342,7 +10144,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.605361388726226</v>
+        <v>1.52635432271837</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.005989710773614</v>
@@ -10431,7 +10233,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.610495922985675</v>
+        <v>1.531880406304448</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.066716338911083</v>
@@ -10520,7 +10322,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.606357425920616</v>
+        <v>1.52764905403808</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.857127180719078</v>
@@ -10609,7 +10411,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.606639293538645</v>
+        <v>1.528438782571345</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.885660698995205</v>
@@ -10698,7 +10500,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.616445530312749</v>
+        <v>1.537333017081145</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.497072037242259</v>
@@ -10787,7 +10589,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.610008693670476</v>
+        <v>1.532519112290918</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.250481191429772</v>
@@ -10876,7 +10678,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.618183501001298</v>
+        <v>1.544775990360323</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.802008075605626</v>
@@ -10965,7 +10767,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.608282457486155</v>
+        <v>1.539309123191557</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.924759204317094</v>
@@ -11054,7 +10856,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.593966436672747</v>
+        <v>1.52541471051605</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.122436094149659</v>
@@ -11143,7 +10945,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.592986577257789</v>
+        <v>1.523853334231459</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.111290424184593</v>
@@ -11232,7 +11034,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.584551907661241</v>
+        <v>1.504820141195997</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.774384736078249</v>
@@ -11321,7 +11123,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.593816872822494</v>
+        <v>1.514632431112579</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.927746179452254</v>
@@ -11607,7 +11409,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.644446099174838</v>
+        <v>1.606732662951242</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.945592409961435</v>
@@ -11696,7 +11498,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.516055823906105</v>
+        <v>1.504884981543375</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.782434694435226</v>
@@ -11785,7 +11587,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.508760661764768</v>
+        <v>1.499772149187154</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.768482347707609</v>
@@ -11874,7 +11676,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.531726458801571</v>
+        <v>1.522030069906389</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.793095586831557</v>
@@ -11963,7 +11765,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529313775111348</v>
+        <v>1.521802905106784</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.78945148458827</v>
@@ -12052,7 +11854,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53495093007932</v>
+        <v>1.524260845626804</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.81053022666401</v>
@@ -12141,7 +11943,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547296537115629</v>
+        <v>1.534625000056048</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.823787231528629</v>
@@ -12230,7 +12032,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.550475064905357</v>
+        <v>1.536908249027416</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.787864052480266</v>
@@ -12319,7 +12121,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.54426875824419</v>
+        <v>1.534403706468936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.812208866145528</v>
@@ -12408,7 +12210,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.545464303393956</v>
+        <v>1.539819044833612</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.812652538897361</v>
@@ -12497,7 +12299,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542116019314343</v>
+        <v>1.538200289743111</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.810526342132875</v>
@@ -12586,7 +12388,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547240971249555</v>
+        <v>1.545424422556474</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.819131097699018</v>
@@ -12675,7 +12477,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550612838456444</v>
+        <v>1.545186366635687</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.831018545572611</v>
@@ -12764,7 +12566,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554740572598295</v>
+        <v>1.553187645876493</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.855508285111479</v>
@@ -12853,7 +12655,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.550233083807786</v>
+        <v>1.546250968200047</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.843385361751943</v>
@@ -12942,7 +12744,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574490693437212</v>
+        <v>1.563340511039081</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.766959941845133</v>
@@ -13031,7 +12833,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.726545302580176</v>
+        <v>1.682549735467362</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.900102806436132</v>
@@ -13120,7 +12922,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.739421637267992</v>
+        <v>1.695794665868043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.501338789250511</v>
@@ -13209,7 +13011,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.730409353627846</v>
+        <v>1.690223396431546</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.490457994461759</v>
@@ -13298,7 +13100,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737733341834698</v>
+        <v>1.7020317533638</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.747044043793174</v>
@@ -13387,7 +13189,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.73022662806305</v>
+        <v>1.699074338794809</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.627064080596788</v>
@@ -13476,7 +13278,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.731871188227399</v>
+        <v>1.701114448593888</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.43041008933116</v>
@@ -13565,7 +13367,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722888059184217</v>
+        <v>1.688182864275681</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.47058036253469</v>
@@ -13654,7 +13456,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.738957580924285</v>
+        <v>1.693430454265825</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.099756942749355</v>
@@ -13743,7 +13545,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.721464673557014</v>
+        <v>1.683736849318326</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.190430509692519</v>
@@ -13832,7 +13634,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.721338581042141</v>
+        <v>1.679482619674918</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.987217927370106</v>
@@ -13921,7 +13723,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725108652947285</v>
+        <v>1.678034025072755</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.066478758316675</v>
@@ -14010,7 +13812,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.718585687767244</v>
+        <v>1.682259117395823</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.11595055471722</v>
@@ -14099,7 +13901,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.714949617944762</v>
+        <v>1.681671260772711</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.987107878643071</v>
@@ -14188,7 +13990,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.718919756900799</v>
+        <v>1.68509820459193</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.91459067416319</v>
@@ -14277,7 +14079,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.717930096534525</v>
+        <v>1.686639191514816</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.802210346701243</v>
@@ -14366,7 +14168,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.721505607636653</v>
+        <v>1.690000176982029</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.016354862371818</v>
@@ -14455,7 +14257,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.730067266305526</v>
+        <v>1.694921725137924</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.907429334296136</v>
@@ -14544,7 +14346,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.736446666124368</v>
+        <v>1.695554620935971</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.706224841458651</v>
@@ -14633,7 +14435,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.722245129819429</v>
+        <v>1.683382976270904</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.058096148184309</v>
@@ -14722,7 +14524,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.713665404771131</v>
+        <v>1.675308600804745</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.831024694748926</v>
@@ -14811,7 +14613,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.709203971781917</v>
+        <v>1.668247974088816</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.716235542066481</v>
@@ -14900,7 +14702,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.719167746981151</v>
+        <v>1.680127796257886</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.757907495714472</v>
@@ -14989,7 +14791,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.7218348252097</v>
+        <v>1.685373912158039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.630674793448762</v>
@@ -15078,7 +14880,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.734142646031165</v>
+        <v>1.695546945684573</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.842061592991456</v>
@@ -15167,7 +14969,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.72334130871492</v>
+        <v>1.692034346684849</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.790442968857929</v>
@@ -15256,7 +15058,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.712095340596714</v>
+        <v>1.685618503898108</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.738242039453167</v>
@@ -15345,7 +15147,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.720165066995788</v>
+        <v>1.694090666234828</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.885040150542579</v>
@@ -15434,7 +15236,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.727499252333064</v>
+        <v>1.698572022415032</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.605279648986229</v>
@@ -15523,7 +15325,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731780370496471</v>
+        <v>1.70455395931247</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.447470751825891</v>
@@ -15612,7 +15414,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.726942641092455</v>
+        <v>1.703089059725339</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.773303138259414</v>
@@ -15701,7 +15503,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.726000805551516</v>
+        <v>1.705078406624035</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.16579090213239</v>
@@ -15790,7 +15592,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.711286384798657</v>
+        <v>1.693743770897762</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.535366796073673</v>
@@ -15879,7 +15681,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.720162619424631</v>
+        <v>1.699436140739867</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.554327391723824</v>
@@ -15968,7 +15770,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.723271346643118</v>
+        <v>1.700997561009122</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.818347843287607</v>
@@ -16057,7 +15859,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.724475789713875</v>
+        <v>1.701417307440878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.368093411761913</v>
@@ -16146,7 +15948,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.7175377664283</v>
+        <v>1.699626697031398</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.504327367854889</v>
@@ -16235,7 +16037,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.705280638774419</v>
+        <v>1.68766469623302</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.47225107324904</v>
@@ -16324,7 +16126,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.708146145298315</v>
+        <v>1.690498622249394</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.34275888783204</v>
@@ -16413,7 +16215,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.706002824815114</v>
+        <v>1.688712707039882</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.180343202413857</v>
@@ -16502,7 +16304,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.71287508478632</v>
+        <v>1.688597848012459</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.424862685708266</v>
@@ -16591,7 +16393,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.720526966896322</v>
+        <v>1.689287102358673</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.625364290436215</v>
@@ -16680,7 +16482,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.716904817556256</v>
+        <v>1.683242185766867</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.616613288606676</v>
@@ -16769,7 +16571,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708851096140938</v>
+        <v>1.676033530529519</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.338988927684551</v>
@@ -16858,7 +16660,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.706237644816196</v>
+        <v>1.6713839811808</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.707571385486363</v>
@@ -16947,7 +16749,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.690809039501328</v>
+        <v>1.654800658442184</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.144994109492741</v>
@@ -17036,7 +16838,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.694551404719996</v>
+        <v>1.653141643711483</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.049889895334565</v>
@@ -17125,7 +16927,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.693289228202469</v>
+        <v>1.652867098839656</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.370971291697847</v>
@@ -17214,7 +17016,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.694789353706198</v>
+        <v>1.647656255835243</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.003111774172661</v>
@@ -17303,7 +17105,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.708711437785244</v>
+        <v>1.655527350483611</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.639379178428727</v>
@@ -17392,7 +17194,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.71053341070768</v>
+        <v>1.655079146280262</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.647207755702688</v>
@@ -17481,7 +17283,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.710647333094172</v>
+        <v>1.654810485376757</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.647881575569168</v>
@@ -17570,7 +17372,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.713473020154817</v>
+        <v>1.655954720597653</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.60078159122285</v>
@@ -17659,7 +17461,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.709377272581744</v>
+        <v>1.657690055242177</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.121709704095021</v>
@@ -17748,7 +17550,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.698954042312298</v>
+        <v>1.647182618975486</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.665799936378171</v>
@@ -17837,7 +17639,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.70456633578939</v>
+        <v>1.657219582932841</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.106415377732522</v>
@@ -17926,7 +17728,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.678565205129143</v>
+        <v>1.643899880347487</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.14132157587662</v>
@@ -18015,7 +17817,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.668110200060102</v>
+        <v>1.632487367161624</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.467343785093998</v>
@@ -18104,7 +17906,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.65809715467002</v>
+        <v>1.624941144980234</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.529820598824277</v>
@@ -18193,7 +17995,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.64188824780664</v>
+        <v>1.605006620323577</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.036030328193877</v>
@@ -18282,7 +18084,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.651254890838074</v>
+        <v>1.616166984820615</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.915787745289866</v>
@@ -18568,7 +18370,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.601984073068245</v>
+        <v>1.561821751563562</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.947191624600226</v>
@@ -18657,7 +18459,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540667266633104</v>
+        <v>1.508639948617198</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.031416855738877</v>
@@ -18746,7 +18548,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544574764458356</v>
+        <v>1.517110844757953</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.048953451420153</v>
@@ -18835,7 +18637,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.565466844399503</v>
+        <v>1.533274781510223</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.002984935424466</v>
@@ -18924,7 +18726,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.558532182420473</v>
+        <v>1.525444655717175</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.047803444643144</v>
@@ -19013,7 +18815,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.564672522582886</v>
+        <v>1.528094780646907</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.039514838908008</v>
@@ -19102,7 +18904,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577744437159509</v>
+        <v>1.540034956585283</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.991270760369048</v>
@@ -19191,7 +18993,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.57108521079955</v>
+        <v>1.536296408085144</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.036916232094449</v>
@@ -19280,7 +19082,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559414389456697</v>
+        <v>1.530169807214324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.012927758243534</v>
@@ -19369,7 +19171,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555632191155963</v>
+        <v>1.532192494962545</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.011573773355675</v>
@@ -19458,7 +19260,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.541121097797403</v>
+        <v>1.51634844257833</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.028826405010641</v>
@@ -19547,7 +19349,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.542270499112345</v>
+        <v>1.515156294031533</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.049070342875352</v>
@@ -19636,7 +19438,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542333154834594</v>
+        <v>1.506142404303309</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.049666760235281</v>
@@ -19725,7 +19527,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534797707685414</v>
+        <v>1.500526312600765</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.983531816636078</v>
@@ -19814,7 +19616,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.531973172384907</v>
+        <v>1.494153971043064</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.037379814391673</v>
@@ -19903,7 +19705,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.549796248712629</v>
+        <v>1.50988266546037</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.028818821819215</v>
@@ -19992,7 +19794,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630686574384998</v>
+        <v>1.574407587434459</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.18866520488435</v>
@@ -20081,7 +19883,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.634114441223299</v>
+        <v>1.575086694152825</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.102076687400467</v>
@@ -20170,7 +19972,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.633147585303272</v>
+        <v>1.572671095958813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.192970183478228</v>
@@ -20259,7 +20061,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.646185266458068</v>
+        <v>1.576709447712216</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.322770637554012</v>
@@ -20348,7 +20150,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.637584406749119</v>
+        <v>1.571212243259154</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.276174515503881</v>
@@ -20437,7 +20239,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640561001808558</v>
+        <v>1.573774304950396</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.167738650988924</v>
@@ -20526,7 +20328,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63737297849451</v>
+        <v>1.566778406590637</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.250973798896724</v>
@@ -20615,7 +20417,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.642225641788525</v>
+        <v>1.566967972610961</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.565160929185586</v>
@@ -20704,7 +20506,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629704390298308</v>
+        <v>1.562368937705602</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.910333205266071</v>
@@ -20793,7 +20595,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.64477482399953</v>
+        <v>1.575216646921299</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.553437887024019</v>
@@ -20882,7 +20684,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.647691408934522</v>
+        <v>1.578326923135658</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.719311549064553</v>
@@ -20971,7 +20773,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65692715387795</v>
+        <v>1.596222866032011</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.610233992938991</v>
@@ -21060,7 +20862,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.661335699171153</v>
+        <v>1.602763637105697</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.599859610936139</v>
@@ -21149,7 +20951,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658909267382942</v>
+        <v>1.603847691310738</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.798881788018259</v>
@@ -21238,7 +21040,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.656939563091774</v>
+        <v>1.603968257128978</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.621235631305081</v>
@@ -21327,7 +21129,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656355945112481</v>
+        <v>1.604115295792521</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.732765405008147</v>
@@ -21416,7 +21218,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.665375231872495</v>
+        <v>1.612453667719975</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.560662806689622</v>
@@ -21505,7 +21307,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.665755256458392</v>
+        <v>1.613693717836477</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.540495049651355</v>
@@ -21594,7 +21396,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.644603009116223</v>
+        <v>1.604120853706658</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.663319136392174</v>
@@ -21683,7 +21485,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.640361740876014</v>
+        <v>1.604428598558101</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.433493262604121</v>
@@ -21772,7 +21574,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.649932639586251</v>
+        <v>1.611158001645506</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.479073475303289</v>
@@ -21861,7 +21663,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.665448593309964</v>
+        <v>1.62456605638566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.448748685825679</v>
@@ -21950,7 +21752,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.677889174195321</v>
+        <v>1.63567230508751</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.254160965755724</v>
@@ -22039,7 +21841,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.698208750124881</v>
+        <v>1.652784499191851</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.45918094790437</v>
@@ -22128,7 +21930,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.681973005632611</v>
+        <v>1.642035466562106</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.075403287747531</v>
@@ -22217,7 +22019,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669408339815124</v>
+        <v>1.633464295534134</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.378202757516823</v>
@@ -22306,7 +22108,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.659631835760777</v>
+        <v>1.625191857643297</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.425960225859906</v>
@@ -22395,7 +22197,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.656200914882957</v>
+        <v>1.625776964822328</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.850924579174175</v>
@@ -22484,7 +22286,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.663192409012872</v>
+        <v>1.62981259263242</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.097805294602225</v>
@@ -22573,7 +22375,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663760813360057</v>
+        <v>1.624968705264062</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.174988393898984</v>
@@ -22662,7 +22464,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.664819143366841</v>
+        <v>1.628851780346649</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.911746111601222</v>
@@ -22751,7 +22553,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64372090874804</v>
+        <v>1.6194449380162</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.057692006386272</v>
@@ -22840,7 +22642,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.655031115867933</v>
+        <v>1.632523963418177</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.176951777515965</v>
@@ -22929,7 +22731,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.66177394964812</v>
+        <v>1.634338262800599</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.991258549920233</v>
@@ -23018,7 +22820,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.667254164559761</v>
+        <v>1.636435173311795</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.790402206926359</v>
@@ -23107,7 +22909,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.639828806513544</v>
+        <v>1.61758184152349</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.806617817402554</v>
@@ -23196,7 +22998,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.624410002653056</v>
+        <v>1.604590668946241</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.78421095213712</v>
@@ -23285,7 +23087,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61620391333761</v>
+        <v>1.597108953674328</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.830436695114497</v>
@@ -23374,7 +23176,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.593700719102676</v>
+        <v>1.570334285205278</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.938825930369679</v>
@@ -23463,7 +23265,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.597397511433345</v>
+        <v>1.56739141972942</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.788312300335341</v>
@@ -23552,7 +23354,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.606272851399706</v>
+        <v>1.565563114364598</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.86827058933114</v>
@@ -23641,7 +23443,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.609159382767933</v>
+        <v>1.568529535932562</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.040031063460578</v>
@@ -23730,7 +23532,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.608011474803379</v>
+        <v>1.567666408847126</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.080564966933208</v>
@@ -23819,7 +23621,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615153530701055</v>
+        <v>1.572045610069118</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.910571601343319</v>
@@ -23908,7 +23710,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.596516458031991</v>
+        <v>1.554171069774663</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.119680157526679</v>
@@ -23997,7 +23799,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.610113970470056</v>
+        <v>1.558707847365223</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.561642183975986</v>
@@ -24086,7 +23888,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.606987775618627</v>
+        <v>1.552422961261738</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.01878663958492</v>
@@ -24175,7 +23977,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.610137560538869</v>
+        <v>1.551044577535676</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.684342896414772</v>
@@ -24264,7 +24066,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.620107579726841</v>
+        <v>1.556969007733855</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.068358850358814</v>
@@ -24353,7 +24155,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.623529712347589</v>
+        <v>1.557087684505878</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.230559424032578</v>
@@ -24442,7 +24244,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.633765066315647</v>
+        <v>1.564580441329522</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.134095047325614</v>
@@ -24531,7 +24333,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.642593256960903</v>
+        <v>1.573482261652743</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.910605576173836</v>
@@ -24620,7 +24422,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.662823620659632</v>
+        <v>1.59048449563241</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.704220058014065</v>
@@ -24709,7 +24511,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.660625349167024</v>
+        <v>1.591547974828767</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.344480865941478</v>
@@ -24798,7 +24600,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.668661999975565</v>
+        <v>1.599701408552711</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.976416795385706</v>
@@ -24887,7 +24689,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.664053427012452</v>
+        <v>1.602531207154992</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.244945506128161</v>
@@ -24976,7 +24778,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.643532949936435</v>
+        <v>1.582818018177458</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.319111760980374</v>
@@ -25065,7 +24867,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.640140707885641</v>
+        <v>1.580203254427681</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.369196842143819</v>
@@ -25154,7 +24956,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.628459027036004</v>
+        <v>1.560138510226292</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.94779326132542</v>
@@ -25243,7 +25045,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.639777462483708</v>
+        <v>1.56850260412777</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.074329446202467</v>
@@ -25529,7 +25331,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.734824947025733</v>
+        <v>1.697444954679377</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.740612284716725</v>
@@ -25618,7 +25420,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.64475140056896</v>
+        <v>1.626833729392765</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.187409035634521</v>
@@ -25707,7 +25509,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.638042252952591</v>
+        <v>1.620267262342929</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.122631321991373</v>
@@ -25796,7 +25598,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.651567238973282</v>
+        <v>1.621658365392731</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.09137366389845</v>
@@ -25885,7 +25687,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.643611777014773</v>
+        <v>1.613169488986434</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.164110369731939</v>
@@ -25974,7 +25776,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.642393192994277</v>
+        <v>1.611590182747658</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.079108677694279</v>
@@ -26063,7 +25865,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.648632894282141</v>
+        <v>1.614559678656606</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.09371302073253</v>
@@ -26152,7 +25954,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.650821938694324</v>
+        <v>1.623759945343848</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.120233409208354</v>
@@ -26241,7 +26043,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.648832691696623</v>
+        <v>1.62309094283399</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.117821590840415</v>
@@ -26330,7 +26132,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.648766453906971</v>
+        <v>1.623101943426934</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.100232503607029</v>
@@ -26419,7 +26221,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.643124783459592</v>
+        <v>1.616190391340082</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.145236434093767</v>
@@ -26508,7 +26310,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.641455167666749</v>
+        <v>1.6087403299601</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.134644959837174</v>
@@ -26597,7 +26399,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639478391391074</v>
+        <v>1.599665886144991</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.140886363767634</v>
@@ -26686,7 +26488,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623206870866454</v>
+        <v>1.584396516994431</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.063518143522477</v>
@@ -26775,7 +26577,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.616663954512511</v>
+        <v>1.573115758052838</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.121038819220918</v>
@@ -26864,7 +26666,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61758847624614</v>
+        <v>1.572184327080616</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.075088306891915</v>
@@ -26953,7 +26755,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.703090492840515</v>
+        <v>1.635230987857901</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.034948198427411</v>
@@ -27042,7 +26844,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.706549683070581</v>
+        <v>1.640996420834131</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.475194569414677</v>
@@ -27131,7 +26933,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711189514067352</v>
+        <v>1.643897889137861</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.510252764177358</v>
@@ -27220,7 +27022,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.730246155868677</v>
+        <v>1.6585302314781</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.416546237785381</v>
@@ -27309,7 +27111,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.716757559164325</v>
+        <v>1.648307790552314</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.551512778462872</v>
@@ -27398,7 +27200,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.722117510827149</v>
+        <v>1.652460010023169</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.317423765906633</v>
@@ -27487,7 +27289,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.703623036411982</v>
+        <v>1.637396595886203</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.414651800888025</v>
@@ -27576,7 +27378,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702357348933697</v>
+        <v>1.63364525421787</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.860712875283668</v>
@@ -27665,7 +27467,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.687619811816237</v>
+        <v>1.629665294888006</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.163439007842521</v>
@@ -27754,7 +27556,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.695991479282798</v>
+        <v>1.635545448054877</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.773371283085844</v>
@@ -27843,7 +27645,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702065916565762</v>
+        <v>1.642950466548277</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.998841248412602</v>
@@ -27932,7 +27734,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.705299949224763</v>
+        <v>1.649533382171316</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.949738483713151</v>
@@ -28021,7 +27823,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.706543736683943</v>
+        <v>1.648759590518844</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.862163048250528</v>
@@ -28110,7 +27912,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.708397102622544</v>
+        <v>1.657015129561035</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.007161820952867</v>
@@ -28199,7 +28001,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.707114056269681</v>
+        <v>1.655107526093089</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.733897651940739</v>
@@ -28288,7 +28090,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.713716605785859</v>
+        <v>1.657541734237423</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.827314026935537</v>
@@ -28377,7 +28179,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719698187768406</v>
+        <v>1.660075638519945</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.679485401342764</v>
@@ -28466,7 +28268,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.705966107811717</v>
+        <v>1.656415068300336</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.73844586837998</v>
@@ -28555,7 +28357,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.691623215927502</v>
+        <v>1.649182487727106</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.936884322636077</v>
@@ -28644,7 +28446,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.693916943193943</v>
+        <v>1.653046577484284</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.649794607174292</v>
@@ -28733,7 +28535,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.695362998771767</v>
+        <v>1.651888781749405</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.639570249657258</v>
@@ -28822,7 +28624,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.718457469978599</v>
+        <v>1.669801117992858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.650522441737074</v>
@@ -28911,7 +28713,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.735637786420917</v>
+        <v>1.683783802864605</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.500847485851356</v>
@@ -29000,7 +28802,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.754833256569365</v>
+        <v>1.692934207742169</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.685024283153479</v>
@@ -29089,7 +28891,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.749477346024521</v>
+        <v>1.691315057076299</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.692977439537571</v>
@@ -29178,7 +28980,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.744426421328144</v>
+        <v>1.68560247598365</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.199971948352666</v>
@@ -29267,7 +29069,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.745575348214168</v>
+        <v>1.693458994631036</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.534692202700065</v>
@@ -29356,7 +29158,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.743052470726861</v>
+        <v>1.695208572315846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.72863764464458</v>
@@ -29445,7 +29247,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.753422247692069</v>
+        <v>1.694873968310507</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.085059532004893</v>
@@ -29534,7 +29336,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.747799312736439</v>
+        <v>1.689787616879604</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.126186052307502</v>
@@ -29623,7 +29425,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.731794999271046</v>
+        <v>1.675813216151595</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.799660416463822</v>
@@ -29712,7 +29514,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.72606275482839</v>
+        <v>1.675546499051211</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.846899780291236</v>
@@ -29801,7 +29603,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.739932499113897</v>
+        <v>1.683188927634393</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.222825823919348</v>
@@ -29890,7 +29692,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.729686472163474</v>
+        <v>1.668636350404426</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.381200001414437</v>
@@ -29979,7 +29781,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.73179367402041</v>
+        <v>1.668587021435655</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.769498766142382</v>
@@ -30068,7 +29870,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.72015851594232</v>
+        <v>1.663637491560568</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.915867266740052</v>
@@ -30157,7 +29959,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.696506189941385</v>
+        <v>1.634753872033954</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.01959932958909</v>
@@ -30246,7 +30048,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.675540128540121</v>
+        <v>1.619976010478078</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.931442789471099</v>
@@ -30335,7 +30137,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.655404811668268</v>
+        <v>1.599354961869782</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.025083348564622</v>
@@ -30424,7 +30226,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.653285654230059</v>
+        <v>1.597395061566145</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.911100792780846</v>
@@ -30513,7 +30315,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.651814499473946</v>
+        <v>1.588202310526983</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.088135333705351</v>
@@ -30602,7 +30404,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.658167932521392</v>
+        <v>1.582283353471733</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.116255189285392</v>
@@ -30691,7 +30493,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.656140308852424</v>
+        <v>1.580721691327828</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.987389797827258</v>
@@ -30780,7 +30582,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.654541405945204</v>
+        <v>1.578612773863511</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.990633447583899</v>
@@ -30869,7 +30671,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.647470505795656</v>
+        <v>1.573166361124702</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.946640743002839</v>
@@ -30958,7 +30760,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.658110705018436</v>
+        <v>1.578693294198399</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.926867681630944</v>
@@ -31047,7 +30849,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.654747594024258</v>
+        <v>1.576383581454343</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.184563207879758</v>
@@ -31136,7 +30938,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.657926731050961</v>
+        <v>1.578143334878688</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.754057823986315</v>
@@ -31225,7 +31027,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.667866042521226</v>
+        <v>1.585160981594382</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.135099730860032</v>
@@ -31314,7 +31116,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.667917454549304</v>
+        <v>1.580400816197189</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.428713287845971</v>
@@ -31403,7 +31205,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.661566949200256</v>
+        <v>1.57037820358347</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.058658339639676</v>
@@ -31492,7 +31294,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.667818804234105</v>
+        <v>1.579236797356618</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.070337504978156</v>
@@ -31581,7 +31383,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.68916662885968</v>
+        <v>1.596318239737758</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.828768000278334</v>
@@ -31670,7 +31472,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.685901504781496</v>
+        <v>1.593887912406738</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.467048549315826</v>
@@ -31759,7 +31561,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.688336627438937</v>
+        <v>1.59536382705461</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.064955110951474</v>
@@ -31848,7 +31650,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.680610511356597</v>
+        <v>1.595436231096137</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.139574323734032</v>
@@ -31937,7 +31739,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.652583994670312</v>
+        <v>1.576958226955944</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.348430492508006</v>
@@ -32026,7 +31828,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.649699007801913</v>
+        <v>1.574154142226382</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.1558638573175</v>
@@ -32115,7 +31917,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.643486274051005</v>
+        <v>1.558307206433713</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.870755323304559</v>
@@ -32204,7 +32006,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.639149610727537</v>
+        <v>1.55610954929571</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.974650164396601</v>
@@ -32490,7 +32292,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.619856307876119</v>
+        <v>1.554793167718016</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.273644703530464</v>
@@ -32579,7 +32381,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.526626563536949</v>
+        <v>1.485385862238305</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.89386100786626</v>
@@ -32668,7 +32470,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.525136312954412</v>
+        <v>1.485135669243727</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.891611037022055</v>
@@ -32757,7 +32559,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539684684098615</v>
+        <v>1.492911340088876</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.91779244361827</v>
@@ -32846,7 +32648,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.527433374989021</v>
+        <v>1.477379177750013</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.920194891153524</v>
@@ -32935,7 +32737,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.519486139464042</v>
+        <v>1.470552408758322</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.885191942139747</v>
@@ -33024,7 +32826,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.511989478218869</v>
+        <v>1.460946531111764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.862962391224554</v>
@@ -33113,7 +32915,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507096154756202</v>
+        <v>1.459776746290877</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.867254689770677</v>
@@ -33202,7 +33004,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.507924582401264</v>
+        <v>1.463659916503064</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.891340226406748</v>
@@ -33291,7 +33093,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.51028525029142</v>
+        <v>1.466963027837262</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.88457911183543</v>
@@ -33380,7 +33182,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.516576295720391</v>
+        <v>1.470136101363959</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.898787482096676</v>
@@ -33469,7 +33271,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.521499894339427</v>
+        <v>1.472600072393432</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.941365470368296</v>
@@ -33558,7 +33360,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523314959139718</v>
+        <v>1.464584171605016</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.965547754660731</v>
@@ -33647,7 +33449,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.511109155799607</v>
+        <v>1.456855730085416</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.880187306646045</v>
@@ -33736,7 +33538,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.509533051542475</v>
+        <v>1.451783282047304</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.910257840393659</v>
@@ -33825,7 +33627,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51361340076081</v>
+        <v>1.452667845322552</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.838892724672015</v>
@@ -33914,7 +33716,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.600191302796909</v>
+        <v>1.514322040108042</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.662354011342759</v>
@@ -34003,7 +33805,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609498970027318</v>
+        <v>1.520573744065415</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.932930993448557</v>
@@ -34092,7 +33894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.610085775154948</v>
+        <v>1.525050650789476</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.161047189666133</v>
@@ -34181,7 +33983,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.624868552466779</v>
+        <v>1.539384876470704</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.932959911143468</v>
@@ -34270,7 +34072,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.625523851349554</v>
+        <v>1.534876117911995</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.25783697793125</v>
@@ -34359,7 +34161,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.638280714202154</v>
+        <v>1.545798232685812</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.954128982887259</v>
@@ -34448,7 +34250,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.621880037582293</v>
+        <v>1.534311571430899</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.887997251928601</v>
@@ -34537,7 +34339,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.618696088378577</v>
+        <v>1.529132148809316</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.606968154723786</v>
@@ -34626,7 +34428,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.599266038002752</v>
+        <v>1.520411043442567</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.803081657026474</v>
@@ -34715,7 +34517,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.598056248895112</v>
+        <v>1.522784390653405</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.458248604343611</v>
@@ -34804,7 +34606,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.601924664339434</v>
+        <v>1.527019756058582</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.653289730533689</v>
@@ -34893,7 +34695,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.603093382905963</v>
+        <v>1.536588832125707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.590510602244438</v>
@@ -34982,7 +34784,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.602998122503286</v>
+        <v>1.535003353501672</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.59713121442974</v>
@@ -35071,7 +34873,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.608304932728097</v>
+        <v>1.541079278823795</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.56111697193773</v>
@@ -35160,7 +34962,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.605808556231988</v>
+        <v>1.536084405106238</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.388669771663809</v>
@@ -35249,7 +35051,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609002457181216</v>
+        <v>1.53784092825506</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.631586601081378</v>
@@ -35338,7 +35140,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610995769792213</v>
+        <v>1.541287064655361</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.399678057340758</v>
@@ -35427,7 +35229,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.601095387885074</v>
+        <v>1.535857230964113</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.520585590863962</v>
@@ -35516,7 +35318,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593646302182139</v>
+        <v>1.532501617182433</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.499085393546339</v>
@@ -35605,7 +35407,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59060898785649</v>
+        <v>1.534860574532376</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.402597426562115</v>
@@ -35694,7 +35496,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.579717934227798</v>
+        <v>1.522431890599682</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.395231739039584</v>
@@ -35783,7 +35585,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597199782108008</v>
+        <v>1.53676932427141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.337435946297429</v>
@@ -35872,7 +35674,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.610144192907218</v>
+        <v>1.547620633924542</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.157211558380086</v>
@@ -35961,7 +35763,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.630263980811487</v>
+        <v>1.566781480151136</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.261656235671412</v>
@@ -36050,7 +35852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.623558396994457</v>
+        <v>1.561508790251375</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.401175176893943</v>
@@ -36139,7 +35941,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.613323611792723</v>
+        <v>1.556431293693086</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.345069798108478</v>
@@ -36228,7 +36030,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609505919342097</v>
+        <v>1.555300148378125</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.351313633404597</v>
@@ -36317,7 +36119,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.605832958740235</v>
+        <v>1.55837783102524</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.146737090195102</v>
@@ -36406,7 +36208,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.613337494135969</v>
+        <v>1.561670193792816</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.296863261638835</v>
@@ -36495,7 +36297,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.618872510480915</v>
+        <v>1.57057117666176</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.189727695109015</v>
@@ -36584,7 +36386,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.615285961421694</v>
+        <v>1.569388831447546</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.147676880087271</v>
@@ -36673,7 +36475,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.611239315729971</v>
+        <v>1.565577384827677</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.439703191166116</v>
@@ -36762,7 +36564,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624323061409907</v>
+        <v>1.574194068221165</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.0069495054456</v>
@@ -36851,7 +36653,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.615644684258754</v>
+        <v>1.560691386871307</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.345148379523817</v>
@@ -36940,7 +36742,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.618953806915272</v>
+        <v>1.565757799473984</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.550561184084522</v>
@@ -37029,7 +36831,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.622845964364288</v>
+        <v>1.578036734277035</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.573934276469524</v>
@@ -37118,7 +36920,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.606871719475976</v>
+        <v>1.560493832464031</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.5985671003248</v>
@@ -37207,7 +37009,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.601635046540139</v>
+        <v>1.553905294286876</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.587578746389968</v>
@@ -37296,7 +37098,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.584302784348651</v>
+        <v>1.52769860947542</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.644926736335995</v>
@@ -37385,7 +37187,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.578110812454854</v>
+        <v>1.522619152698542</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.593057675980273</v>
@@ -37474,7 +37276,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.582944027031181</v>
+        <v>1.521196352004158</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.749449937555086</v>
@@ -37563,7 +37365,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.586231959738247</v>
+        <v>1.519557347420415</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.810349937550533</v>
@@ -37652,7 +37454,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.587829378918289</v>
+        <v>1.518613209916758</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.720196193479701</v>
@@ -37741,7 +37543,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.589286832514572</v>
+        <v>1.51872768272914</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.803978269252143</v>
@@ -37830,7 +37632,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.572662113818786</v>
+        <v>1.501797293056716</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.837980671673704</v>
@@ -37919,7 +37721,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.577660726004939</v>
+        <v>1.502420788436927</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.685992093534373</v>
@@ -38008,7 +37810,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.567814672539649</v>
+        <v>1.495150030740446</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.853502788341819</v>
@@ -38097,7 +37899,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.571675753502987</v>
+        <v>1.496265942726863</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.574643640608506</v>
@@ -38186,7 +37988,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.582102667361323</v>
+        <v>1.50904571806615</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.795496344085391</v>
@@ -38275,7 +38077,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.586922240064617</v>
+        <v>1.512279578570149</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.100859617802235</v>
@@ -38364,7 +38166,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.586132140209235</v>
+        <v>1.506720360794096</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.968577634409057</v>
@@ -38453,7 +38255,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.593330489370611</v>
+        <v>1.514132534868758</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.000152887634621</v>
@@ -38542,7 +38344,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.607569746632865</v>
+        <v>1.530307357919707</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.576354584336646</v>
@@ -38631,7 +38433,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.609589895482962</v>
+        <v>1.529361865830582</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.99796967145802</v>
@@ -38720,7 +38522,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.616959636469127</v>
+        <v>1.538133021752606</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.796332216989439</v>
@@ -38809,7 +38611,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.617481394526233</v>
+        <v>1.537489779683524</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.818856704453014</v>
@@ -38898,7 +38700,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.59413251484356</v>
+        <v>1.514610058313905</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.923114489699496</v>
@@ -38987,7 +38789,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.593402927693151</v>
+        <v>1.517396401800302</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.889010458282516</v>
@@ -39076,7 +38878,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.590078010194171</v>
+        <v>1.51003976939364</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.75580507809056</v>
@@ -39165,7 +38967,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.594083918975131</v>
+        <v>1.51752203114909</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.789008902822285</v>
@@ -39451,7 +39253,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57851685384863</v>
+        <v>1.594571453873603</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.104492052942918</v>
@@ -39540,7 +39342,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543159367335263</v>
+        <v>1.565394315170144</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.269866882142717</v>
@@ -39629,7 +39431,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547513275203257</v>
+        <v>1.572967670884367</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.330776485041687</v>
@@ -39718,7 +39520,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567467996715866</v>
+        <v>1.59080456260651</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.322985399010989</v>
@@ -39807,7 +39609,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576057787842534</v>
+        <v>1.593991806187516</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.331318592703856</v>
@@ -39896,7 +39698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.582446122844152</v>
+        <v>1.600795996490319</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.330598937901063</v>
@@ -39985,7 +39787,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606535440848245</v>
+        <v>1.621990843467232</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.308081727285385</v>
@@ -40074,7 +39876,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603584788795855</v>
+        <v>1.621611822861282</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.303099893892965</v>
@@ -40163,7 +39965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.611817454708292</v>
+        <v>1.629571323990779</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.361716486933027</v>
@@ -40252,7 +40054,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.608625798059655</v>
+        <v>1.631011066057759</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.369735836759928</v>
@@ -40341,7 +40143,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.594098952151837</v>
+        <v>1.61499085521576</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.337262046713198</v>
@@ -40430,7 +40232,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61598036509531</v>
+        <v>1.630553454407225</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.368484348853563</v>
@@ -40519,7 +40321,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.632370290175387</v>
+        <v>1.631485770148729</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.343574466048024</v>
@@ -40608,7 +40410,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61966785067796</v>
+        <v>1.619035517745875</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.314745727081244</v>
@@ -40697,7 +40499,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.607608704793446</v>
+        <v>1.603340296495094</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.382400399833264</v>
@@ -40786,7 +40588,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.616306561943825</v>
+        <v>1.608315385609783</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.232278582935909</v>
@@ -40875,7 +40677,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.683182776065463</v>
+        <v>1.663617946384273</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.266673021740835</v>
@@ -40964,7 +40766,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680097894912052</v>
+        <v>1.661044515322915</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.052669234074023</v>
@@ -41053,7 +40855,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.681029654488384</v>
+        <v>1.658057857598071</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.27530165669298</v>
@@ -41142,7 +40944,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.673628911352113</v>
+        <v>1.655120989728421</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.999964278554127</v>
@@ -41231,7 +41033,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671586915716874</v>
+        <v>1.644735266617177</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.281726376226003</v>
@@ -41320,7 +41122,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.677205252408221</v>
+        <v>1.640682402066309</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.1651789459005</v>
@@ -41409,7 +41211,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.684402744728048</v>
+        <v>1.637634229320848</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.133738484430803</v>
@@ -41498,7 +41300,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.671525092021613</v>
+        <v>1.625522933805736</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.042517396221077</v>
@@ -41587,7 +41389,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.663804144209677</v>
+        <v>1.619699954874641</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.260625240966271</v>
@@ -41676,7 +41478,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.680240585736001</v>
+        <v>1.633722682124832</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.933856398715331</v>
@@ -41765,7 +41567,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.670233583878669</v>
+        <v>1.627575495846976</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.107696094663317</v>
@@ -41854,7 +41656,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674364101567343</v>
+        <v>1.641235508873159</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.072556748484609</v>
@@ -41943,7 +41745,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.676912699578497</v>
+        <v>1.644110903315523</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.133187074422232</v>
@@ -42032,7 +41834,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.679900086255558</v>
+        <v>1.646372401266005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.940732916773444</v>
@@ -42121,7 +41923,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.685684420023232</v>
+        <v>1.652132067414922</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.738744798253256</v>
@@ -42210,7 +42012,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684244661968307</v>
+        <v>1.649166810220745</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.092277319470637</v>
@@ -42299,7 +42101,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.692117285414497</v>
+        <v>1.654294977806768</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.774991807201673</v>
@@ -42388,7 +42190,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690199431338808</v>
+        <v>1.652745318007786</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.906710848033248</v>
@@ -42477,7 +42279,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679806795776215</v>
+        <v>1.642689866319169</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.865625312335243</v>
@@ -42566,7 +42368,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688733047183474</v>
+        <v>1.65865653608865</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.917476857602195</v>
@@ -42655,7 +42457,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.695705211664297</v>
+        <v>1.671589694462623</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.819380561862161</v>
@@ -42744,7 +42546,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710920142933408</v>
+        <v>1.687110888625997</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.838668312188554</v>
@@ -42833,7 +42635,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723199265020241</v>
+        <v>1.699277047050701</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.543334856777922</v>
@@ -42922,7 +42724,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.742053933353875</v>
+        <v>1.710352874933202</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.815778867532551</v>
@@ -43011,7 +42813,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.747385016545774</v>
+        <v>1.710196887380175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.970866463386511</v>
@@ -43100,7 +42902,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.742179544860772</v>
+        <v>1.708578941505305</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.912515642596698</v>
@@ -43189,7 +42991,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.733657520041826</v>
+        <v>1.707165458923228</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.142913438594807</v>
@@ -43278,7 +43080,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.729668051753753</v>
+        <v>1.706028870513459</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.778699022966959</v>
@@ -43367,7 +43169,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.737664663371305</v>
+        <v>1.716468828410405</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.986045245450158</v>
@@ -43456,7 +43258,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.737694591424621</v>
+        <v>1.714567536531902</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.33862821559207</v>
@@ -43545,7 +43347,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.743572727912365</v>
+        <v>1.716247241626459</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.20138565583133</v>
@@ -43634,7 +43436,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.719141296668936</v>
+        <v>1.698665715884691</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.873444551390452</v>
@@ -43723,7 +43525,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.728220363398144</v>
+        <v>1.707168779820914</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.970009153397367</v>
@@ -43812,7 +43614,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.73199438711868</v>
+        <v>1.714131922718529</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.140638919160884</v>
@@ -43901,7 +43703,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.728576621807213</v>
+        <v>1.712327747518546</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.184179022700518</v>
@@ -43990,7 +43792,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.683035796146035</v>
+        <v>1.674142609473427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.823764932386661</v>
@@ -44079,7 +43881,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.662621769570293</v>
+        <v>1.650951090519785</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.880881729328531</v>
@@ -44168,7 +43970,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.653445095091134</v>
+        <v>1.645323187420558</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.859688747104469</v>
@@ -44257,7 +44059,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.626220881888988</v>
+        <v>1.622938443446839</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.784216880853553</v>
@@ -44346,7 +44148,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.640595940297216</v>
+        <v>1.634145982136029</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.723077862327246</v>
@@ -44435,7 +44237,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.641639087172752</v>
+        <v>1.629818916902746</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.824928070346099</v>
@@ -44524,7 +44326,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.646753603353559</v>
+        <v>1.634091497132109</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.954365987314915</v>
@@ -44613,7 +44415,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.64662509206565</v>
+        <v>1.629155629728617</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.83227738670001</v>
@@ -44702,7 +44504,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.643796371810241</v>
+        <v>1.623082402290447</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.012847660905835</v>
@@ -44791,7 +44593,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.62835193669476</v>
+        <v>1.604129927372075</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.948808752313731</v>
@@ -44880,7 +44682,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.643361331612116</v>
+        <v>1.615874232817974</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.439100129644078</v>
@@ -44969,7 +44771,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.632089127930111</v>
+        <v>1.607361643564409</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.934793044504254</v>
@@ -45058,7 +44860,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.623189937593182</v>
+        <v>1.597557660050137</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.654073126567367</v>
@@ -45147,7 +44949,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.624278640396675</v>
+        <v>1.59291337169562</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.962371422774782</v>
@@ -45236,7 +45038,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.618910360083106</v>
+        <v>1.583272932545621</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.799356165638251</v>
@@ -45325,7 +45127,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.629853181448784</v>
+        <v>1.592304389389184</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.354525776398665</v>
@@ -45414,7 +45216,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.620075928575087</v>
+        <v>1.587460963856907</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.201788410208951</v>
@@ -45503,7 +45305,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631965180097578</v>
+        <v>1.598114919976025</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.930704619121493</v>
@@ -45592,7 +45394,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.623622427875836</v>
+        <v>1.58813040476149</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.00639792203199</v>
@@ -45681,7 +45483,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.587365723738246</v>
+        <v>1.558190851790059</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.924144091502153</v>
@@ -45770,7 +45572,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.559376057679646</v>
+        <v>1.53076469846042</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.782055048051415</v>
@@ -45859,7 +45661,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.523007486280213</v>
+        <v>1.491615992286846</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.821775060085214</v>
@@ -45948,7 +45750,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.508555105214992</v>
+        <v>1.474659074844037</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.864014405141173</v>
@@ -46037,7 +45839,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.491681241097866</v>
+        <v>1.45261425328241</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.887162159188335</v>
@@ -46126,7 +45928,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.482742624844229</v>
+        <v>1.446655150149646</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.905274674655602</v>
